--- a/xlsx/盧安達_intext.xlsx
+++ b/xlsx/盧安達_intext.xlsx
@@ -29,7 +29,7 @@
     <t>羅安達</t>
   </si>
   <si>
-    <t>政策_政策_美國_盧安達</t>
+    <t>体育运动_体育运动_南非_盧安達</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE%E5%9B%BD%E6%97%97</t>
